--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1403.460003066978</v>
+        <v>246.8095716206934</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.055999994277954</v>
+        <v>1.111000061035156</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.082733700630662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.983165146930532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1268.689999999985</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.06</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -896,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.31116002552194</v>
+        <v>31.60181147454995</v>
       </c>
     </row>
     <row r="5">
@@ -920,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42.28226196994634</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.79316574842348</v>
+        <v>40.04208713267367</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,62 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>121.7200000000048</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1162,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2400000000052</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1173,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>122.4650000000038</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1184,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>118.4450000000033</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1195,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3100000000049</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1206,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.1149999999609</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1217,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7649999999696</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1228,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5600000000676</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1239,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4949999999656</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1250,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.0099999999686</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1261,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.07000000002517</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1272,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.54000000002452</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1283,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.9100000000235</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1294,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.97000000002481</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74500000002445</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1316,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1327,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8099999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1338,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000013</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1360,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.130000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1393,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.2650000000006</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1404,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94499999999984</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1415,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000008</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1426,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000009</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1437,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8099999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1448,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000013</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1459,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1470,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.130000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1481,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>121.7200000000212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1492,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>117.2400000000217</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1503,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>122.4650000000202</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1514,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>118.4450000000197</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -1525,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>116.3100000000214</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1536,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>132.1149999999454</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -1547,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>133.7649999999578</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -1558,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>121.5600000000944</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -1569,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>134.4949999999501</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -1580,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>132.0099999999538</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.61500000000095</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1638,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.8099999999998</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1649,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.46500000000125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1660,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>77.19999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1671,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>79.13000000000102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1682,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7200000000197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1693,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.24000000001979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1704,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>22.46500000001834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1715,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>18.44500000001824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1726,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.3100000000195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1737,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>32.11499999994373</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1748,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>33.7649999999561</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1759,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>21.56000000009271</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>34.49499999994839</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1781,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>32.00999999995281</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1839,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1850,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1861,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1872,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2106,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2144,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2155,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2166,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2177,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2188,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2199,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2210,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2221,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2232,89 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
